--- a/biology/Zoologie/Eupanacra_splendens/Eupanacra_splendens.xlsx
+++ b/biology/Zoologie/Eupanacra_splendens/Eupanacra_splendens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eupanacra splendens est une espèce de lépidoptères de la famille des Sphingidae, sous-famille des Macroglossinae, tribu des Macroglossini, sous-tribu des Macroglossina et du genre Eupanacra.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure varie autour de 50 mm. la face dorsale des aile ont antérieures et Verte à brun. Chacun avec trois têtes de flèches blanches à l'apex. Les ailes postérieures sont brun foncé, chacune étant traversée par une large bande orange.
 			Face dorsale de la femelle (coll.MHNT)
@@ -544,10 +558,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
-L'espèce est connue aux Moluques, en Papouasie-Nouvelle-Guinée, aux îles Salomon et du nord-est de l'Australie [1].</t>
+L'espèce est connue aux Moluques, en Papouasie-Nouvelle-Guinée, aux îles Salomon et du nord-est de l'Australie .</t>
         </is>
       </c>
     </row>
@@ -575,7 +591,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chenilles se nourrissent sur Epipremnum pinnatum. Elles ont des ocelles de chaque côté, avec ceux sur le premier segment abdominal qui sont plus grandes que les autres. La queue a une corne qui se termine par un point abrupt.
 </t>
@@ -606,18 +624,88 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Eupanacra splendens a été décrite par l'entomologiste britannique Lionel Walter Rothschild en 1894, sous le nom initial de Angonyx splendens[2].
-La localité type est le Queensland en Australie.
-Synonymie
-Angonyx splendensRothschild, 1894 protonyme
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce Eupanacra splendens a été décrite par l'entomologiste britannique Lionel Walter Rothschild en 1894, sous le nom initial de Angonyx splendens.
+La localité type est le Queensland en Australie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eupanacra_splendens</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupanacra_splendens</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Angonyx splendensRothschild, 1894 protonyme
 Panacra splendens Rothschild, 1894
 Panacra splendens salomonis Clark, 1920
-Panacra splendens paradoxa Gehlen, 1932
-Liste des sous-espèces
-Eupanacra splendens splendens (Moluques (Maluku, Buru, Ambon, Aru, Îles Kai), Papouasie-Nouvelle - Guinée, les Îles Salomon, nord-est de Australie)
-Eupanacra splendens burica Brechlin, 2014 (Indonesie)[3]
+Panacra splendens paradoxa Gehlen, 1932</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eupanacra_splendens</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupanacra_splendens</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Eupanacra splendens splendens (Moluques (Maluku, Buru, Ambon, Aru, Îles Kai), Papouasie-Nouvelle - Guinée, les Îles Salomon, nord-est de Australie)
+Eupanacra splendens burica Brechlin, 2014 (Indonesie)
 Eupanacra splendens makira Brechlin, 2014 (Iles Salomon)
 Eupanacra splendens novobrittanica Brechlin, 2014 Nouvelle-Bretagne orientale en Papouasie-Nouvelle-Guinée
 Eupanacra splendens paradoxa (Gehlen, 1932) (Moluques)
